--- a/Data/Input/Policy Details.xlsx
+++ b/Data/Input/Policy Details.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreatBots\Documents\UiPath\IACET_Performer\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreatBots\Documents\UiPath\IACET_PerformerPerPage\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Country" sheetId="1" r:id="rId1"/>
+    <sheet name="ClaimType" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -32,9 +32,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>INDA</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Claim Type</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -551,9 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1048567" sqref="F1048567"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -585,39 +585,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,15 +625,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,15 +641,15 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1669,90 +1671,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1778,147 +1780,147 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
